--- a/server/public/statsAll.xlsx
+++ b/server/public/statsAll.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -426,9 +426,441 @@
         <v>-12400</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>q</v>
+      </c>
+      <c r="B4">
+        <v>-12400</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>q</v>
+      </c>
+      <c r="B5">
+        <v>-12400</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>q</v>
+      </c>
+      <c r="B6">
+        <v>-12400</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>q</v>
+      </c>
+      <c r="B7">
+        <v>-12400</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>q</v>
+      </c>
+      <c r="B8">
+        <v>-12400</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>q</v>
+      </c>
+      <c r="B9">
+        <v>-12400</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>q</v>
+      </c>
+      <c r="B10">
+        <v>-12400</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>q</v>
+      </c>
+      <c r="B11">
+        <v>-13400</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>q</v>
+      </c>
+      <c r="B12">
+        <v>-14400</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>q</v>
+      </c>
+      <c r="B13">
+        <v>-14600</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>q</v>
+      </c>
+      <c r="B14">
+        <v>-14800</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>q</v>
+      </c>
+      <c r="B15">
+        <v>-15200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>q</v>
+      </c>
+      <c r="B16">
+        <v>-15600</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>q</v>
+      </c>
+      <c r="B17">
+        <v>-16200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>q</v>
+      </c>
+      <c r="B18">
+        <v>-17000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>q</v>
+      </c>
+      <c r="B19">
+        <v>-18000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>q</v>
+      </c>
+      <c r="B20">
+        <v>-18000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>q</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>q</v>
+      </c>
+      <c r="B22">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>q</v>
+      </c>
+      <c r="B23">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>q</v>
+      </c>
+      <c r="B24">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>q</v>
+      </c>
+      <c r="B25">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>q</v>
+      </c>
+      <c r="B26">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>q</v>
+      </c>
+      <c r="B27">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>q</v>
+      </c>
+      <c r="B28">
+        <v>-4800</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>q</v>
+      </c>
+      <c r="B29">
+        <v>-5400</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>q</v>
+      </c>
+      <c r="B30">
+        <v>-5800</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>q</v>
+      </c>
+      <c r="B31">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>q</v>
+      </c>
+      <c r="B32">
+        <v>-7000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>q</v>
+      </c>
+      <c r="B33">
+        <v>-7800</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>q</v>
+      </c>
+      <c r="B34">
+        <v>-8400</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>q</v>
+      </c>
+      <c r="B35">
+        <v>-8000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>q</v>
+      </c>
+      <c r="B36">
+        <v>-7800</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>q</v>
+      </c>
+      <c r="B37">
+        <v>-8000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>q</v>
+      </c>
+      <c r="B38">
+        <v>-8400</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>q</v>
+      </c>
+      <c r="B39">
+        <v>-9000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>q</v>
+      </c>
+      <c r="B40">
+        <v>-9800</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>q</v>
+      </c>
+      <c r="B41">
+        <v>-10800</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>q</v>
+      </c>
+      <c r="B42">
+        <v>-11800</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>q</v>
+      </c>
+      <c r="B43">
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>q</v>
+      </c>
+      <c r="B44">
+        <v>-13200</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>q</v>
+      </c>
+      <c r="B45">
+        <v>-13600</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>q</v>
+      </c>
+      <c r="B46">
+        <v>-13800</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>q</v>
+      </c>
+      <c r="B47">
+        <v>-14000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>q</v>
+      </c>
+      <c r="B48">
+        <v>-14400</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>q</v>
+      </c>
+      <c r="B49">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>q</v>
+      </c>
+      <c r="B50">
+        <v>-15800</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>q</v>
+      </c>
+      <c r="B51">
+        <v>-16800</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>q</v>
+      </c>
+      <c r="B52">
+        <v>-16800</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>q</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>q</v>
+      </c>
+      <c r="B54">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>q</v>
+      </c>
+      <c r="B55">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>q</v>
+      </c>
+      <c r="B56">
+        <v>-18000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>q</v>
+      </c>
+      <c r="B57">
+        <v>-18000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B57"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/public/statsAll.xlsx
+++ b/server/public/statsAll.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -858,9 +858,25 @@
         <v>-18000</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>q</v>
+      </c>
+      <c r="B58">
+        <v>-18000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>q</v>
+      </c>
+      <c r="B59">
+        <v>-18000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B59"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/public/statsAll.xlsx
+++ b/server/public/statsAll.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -874,9 +874,17 @@
         <v>-18000</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>d</v>
+      </c>
+      <c r="B60">
+        <v>-17400</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B59"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B60"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/public/statsAll.xlsx
+++ b/server/public/statsAll.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -874,9 +874,17 @@
         <v>-18000</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>oleg</v>
+      </c>
+      <c r="B60">
+        <v>-3600</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B59"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B60"/>
   </ignoredErrors>
 </worksheet>
 </file>